--- a/Assets/StreamingAssets/StoryScript3.xlsx
+++ b/Assets/StreamingAssets/StoryScript3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C791A4-EC87-7C4F-BA44-588C57AC1864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1107152-573A-A840-B717-512D919779E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="150">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,10 @@
   </si>
   <si>
     <t>Room-Outside1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(.....)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1033,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2082,49 +2086,34 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="34">
+    <row r="46" spans="1:12" ht="17">
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
+    <row r="47" spans="1:12" ht="34">
       <c r="B47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="2">
-        <v>500</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17">
       <c r="A48" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
         <v>107</v>
@@ -2133,21 +2122,27 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="2">
+        <v>500</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="34">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2159,15 +2154,15 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="51">
+    <row r="50" spans="1:12" ht="34">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2179,12 +2174,12 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="17">
+    <row r="51" spans="1:12" ht="51">
       <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>107</v>
@@ -2199,12 +2194,12 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="34">
+    <row r="52" spans="1:12" ht="17">
       <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -2215,21 +2210,19 @@
       <c r="E52" t="s">
         <v>148</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="17">
+    <row r="53" spans="1:12" ht="34">
       <c r="A53" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2237,31 +2230,18 @@
       <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="34">
+        <v>17</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="17">
       <c r="A54" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -2272,22 +2252,34 @@
       <c r="E54" t="s">
         <v>148</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="G54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="34">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2302,12 +2294,12 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" ht="17">
+    <row r="56" spans="1:12" ht="34">
       <c r="A56" t="s">
         <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
@@ -2327,13 +2319,13 @@
     </row>
     <row r="57" spans="1:12" ht="17">
       <c r="A57" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2350,13 +2342,13 @@
     </row>
     <row r="58" spans="1:12" ht="17">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2364,31 +2356,43 @@
       <c r="E58" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="34">
+    <row r="59" spans="1:12" ht="17">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="34">
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2397,50 +2401,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17">
-      <c r="A61" t="s">
+    <row r="61" spans="1:12" ht="34">
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17">
+      <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>81</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="34">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -2448,16 +2428,34 @@
       <c r="E62" t="s">
         <v>88</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="G62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="34">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -2472,15 +2470,9 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="17">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
+    <row r="64" spans="1:12" ht="34">
       <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -2500,10 +2492,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -2520,13 +2512,13 @@
     </row>
     <row r="66" spans="1:12" ht="17">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -2541,15 +2533,15 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="34">
+    <row r="67" spans="1:12" ht="17">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -2564,15 +2556,15 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="17">
+    <row r="68" spans="1:12" ht="34">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -2580,64 +2572,76 @@
       <c r="E68" t="s">
         <v>88</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="51">
+    <row r="69" spans="1:12" ht="17">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
       <c r="B69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" ht="51">
+      <c r="B70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="34">
-      <c r="B70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="34">
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="34">
       <c r="B72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="34">
+      <c r="B73" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="51">
-      <c r="B73" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -2646,9 +2650,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="34">
+    <row r="74" spans="1:12" ht="51">
       <c r="B74" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -2657,20 +2661,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="51">
+    <row r="75" spans="1:12" ht="34">
       <c r="B75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="51">
+      <c r="B76" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="34">
-      <c r="B76" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -2680,33 +2684,44 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="34">
-      <c r="A77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="34">
+      <c r="A78" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>14</v>
       </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17">
-      <c r="A78" t="s">
+    <row r="79" spans="1:12" ht="17">
+      <c r="A79" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>147</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Assets/StreamingAssets/StoryScript3.xlsx
+++ b/Assets/StreamingAssets/StoryScript3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1107152-573A-A840-B717-512D919779E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321732D-DE1F-7C4B-9955-E8D9DF8970E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="144">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we passed by the rear garden again, we heard a fierce argument.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,18 +186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Because I’m your father! For generations, our Xu family has managed the Gong River!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Xu-Shout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How can I trust others with it? Will they care about the people?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>That’s your responsibility—what’s it got to do with me?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,18 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I don’t care about rivers or canals!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Then came the sound of something crashing to the ground inside.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It was clear that the conflict between Xu Ming and the manor master had reached a breaking point.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(No wonder he always looked so gloomy.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ah—Young Master!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Astonished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Forgive me for letting you witness such a disgraceful family scene, Master Di.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ming-Thinking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,30 +282,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This must be Master Di from Luoyang and his companion?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mei-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Greetings, madam. I’m Di Renjie, and this is my page, Yao Chong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am Lady Mei. Please, no need for such formalities.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The master mentioned you earlier. Do stay and rest in the manor for the next couple of days.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She then turned and took Xu Ming’s hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apppearAt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,25 +305,9 @@
     <t>Ming-Regular</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The sky looked ready to pour.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let’s head back, Yaochong.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Regular</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(By the time we returned to our room, it was already past the You hour—night was about to fall completely.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chong, what do you think of the Qingliu Manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dee-Determined</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,26 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There are unusually few people here, and the buildings look quite rundown.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is this really the renowned Qingliu Manor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yao-Sad2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>And the manor lord and his son seem to be at serious odds with each other.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There’s also that Treasure Pavilion that’s treated as forbidden and kept under lock and key—it feels very mysterious.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exactly. And that maid—she looked frightened the moment she heard we were from Luoyang.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Sir opened the door—it was the manor’s steward, Mr. He.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>He</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,18 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The banquet will begin at the start of the Wu hour, in the manor’s banquet hall.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thank you for informing us, Steward He. We’ll be there on time.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also, judging by the sky, there’s likely to be a heavy downpour soon. You may want to head to the banquet hall a bit earlier.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We’ve prepared some refreshments for the guests.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,38 +392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thank you, Steward.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>By the way, Steward He, do you know a young woman named Ran?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ah, she’s a doctor from the town. She came up the mountain this time to treat the manor lord.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>She’s also been invited to tonight’s banquet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I see.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In that case, I shall take my leave now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(After Steward He left, we heard him knocking on the door across the hall.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(It seemed he was personally informing each guest room.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,10 +408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Let me look for the oil-paper umbrella Steward He just mentioned.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(After rummaging through the chests and drawers…)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,18 +448,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The first goes through the front courtyard.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The second requires cutting across the training ground.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If we really want to avoid the steps, we could take the long corridor around half the training ground.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,10 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Since it’s about to rain, let’s take the quicker path through the front courtyard.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Go to BanquetHall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,6 +484,130 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(.....)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It was clear that the conflict between the Lord and Ming had reached a breaking point.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ah—Young Lord!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgive me for letting you witness such a disgraceful family scene.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord mentioned you earlier. Do stay and rest in the manor for the next couple of days.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(She then turned and took Ming’s hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao, what do you think of the Qingliu Manor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There’s also that Treasure Vault that’s treated as forbidden and kept under lock and key—it feels very mysterious.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we passed by the garden again, I heard a fierce argument.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The wealth and power of our family need you to inherit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Because I’m your father! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I don’t care about wealth and power at all!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This must be Dee from Luoyang and his student?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings, madam. I’m Judge Dee, and this is my student, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Mei. The wife of the Lord. Please, no need for such formalities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let’s head back, Yao.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The sky looked ready to pour.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Lord and his son seem to be at serious odds with each other.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(I opened the door—it was the manor’s butler.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you for informing us. We’ll be there on time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also, judging by the sky, there’s likely to be a heavy downpour soon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You may want to head to the banquet hall a bit earlier.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(After butler left, we heard him knocking on the door across the hall.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let me look for the oil-paper umbrella he just mentioned.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The first goes through the frontyard.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The second requires cutting across the training square.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(If we really want to avoid the steps, we could take the long corridor around half the training square.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it’s about to rain, let’s take the quicker path through the frontyard.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The banquet will begin at the start of the Xu hour (7 PM), in the manor’s banquet hall.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(By the time we returned to our room, it was already past the You hour (5 PM)——night was about to fall completely.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>History6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -655,8 +631,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +658,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -690,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +690,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1120,13 +1118,13 @@
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1141,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
@@ -1150,18 +1148,18 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1178,13 +1176,13 @@
     </row>
     <row r="5" spans="1:16" ht="17">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1199,15 +1197,15 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="34">
+    <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1222,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="34">
+    <row r="7" spans="1:16" ht="17">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1257,13 +1255,13 @@
     </row>
     <row r="8" spans="1:16" ht="17">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1278,18 +1276,18 @@
         <v>500</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1305,7 +1303,7 @@
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1316,7 +1314,7 @@
     </row>
     <row r="11" spans="1:16" ht="51">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1338,7 +1336,7 @@
     </row>
     <row r="13" spans="1:16" ht="51">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -1352,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1370,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>22</v>
@@ -1379,18 +1377,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1410,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -1430,13 +1428,13 @@
     </row>
     <row r="17" spans="1:12" ht="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -1454,18 +1452,18 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="34">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1486,7 +1484,7 @@
     </row>
     <row r="19" spans="1:12" ht="51">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1497,13 +1495,13 @@
     </row>
     <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1518,18 +1516,18 @@
         <v>500</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1543,7 +1541,7 @@
     </row>
     <row r="22" spans="1:12" ht="51">
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1557,15 +1555,15 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="34">
+    <row r="23" spans="1:12" ht="17">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1580,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="34">
@@ -1588,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1612,15 +1610,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="17">
+    <row r="25" spans="1:12" ht="34">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1637,13 +1635,13 @@
     </row>
     <row r="26" spans="1:12" ht="34">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1664,7 +1662,7 @@
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1673,13 +1671,13 @@
         <v>27</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>22</v>
@@ -1688,18 +1686,18 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1716,13 +1714,13 @@
     </row>
     <row r="29" spans="1:12" ht="17">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1743,13 +1741,13 @@
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1758,9 +1756,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17">
+    <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1768,25 +1766,20 @@
       <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1796,8 +1789,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="51">
-      <c r="B33" s="1" t="s">
-        <v>82</v>
+      <c r="B33" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1811,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>22</v>
@@ -1838,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="17">
@@ -1846,16 +1839,16 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1869,16 +1862,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1892,16 +1885,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1915,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1924,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1938,16 +1931,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1956,21 +1949,21 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="17">
+    <row r="40" spans="1:12" ht="51">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1981,19 +1974,19 @@
     </row>
     <row r="41" spans="1:12" ht="34">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2002,359 +1995,367 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="51">
+    <row r="42" spans="1:12" ht="17">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="34">
-      <c r="A43" t="s">
-        <v>1</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="17">
-      <c r="A44" t="s">
-        <v>1</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="34">
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="17">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>149</v>
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="34">
-      <c r="B47" s="1" t="s">
-        <v>104</v>
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="17">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
-      </c>
-      <c r="J48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="2">
-        <v>500</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="34">
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="34">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="34">
+    <row r="50" spans="1:14" ht="17">
       <c r="A50" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" ht="51">
+    <row r="51" spans="1:14" ht="17">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
         <v>111</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>148</v>
-      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="17">
+    <row r="52" spans="1:14" ht="34">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" ht="34">
+      <c r="M52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="17">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="17">
       <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="34">
+      <c r="B55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="34">
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17">
+      <c r="A57" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>148</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="2" t="s">
+      <c r="I57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="34">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" ht="34">
-      <c r="A56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" ht="17">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" ht="17">
+      <c r="L57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="34">
       <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2363,105 +2364,107 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" ht="17">
-      <c r="A59" t="s">
-        <v>105</v>
-      </c>
+    <row r="59" spans="1:14" ht="34">
       <c r="B59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" ht="34">
+    <row r="60" spans="1:14" ht="17">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="34">
+        <v>72</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" ht="17">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="17">
+        <v>72</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="17">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="34">
+        <v>72</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="34">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2470,259 +2473,150 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" ht="34">
+    <row r="64" spans="1:14" ht="17">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="17">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
+    <row r="65" spans="1:5" ht="51">
       <c r="B65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" ht="17">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34">
       <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" ht="17">
-      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="34">
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="34">
+      <c r="B68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="51">
+      <c r="B69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="34">
+      <c r="B70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="51">
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="34">
+      <c r="B72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="34">
+      <c r="A73" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
         <v>14</v>
       </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="34">
-      <c r="A68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" ht="17">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" ht="51">
-      <c r="B70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="34">
-      <c r="B71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="34">
-      <c r="B72" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="34">
-      <c r="B73" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D73" t="s">
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="51">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="34">
-      <c r="B75" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="51">
-      <c r="B76" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="34">
-      <c r="B77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="34">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="17">
-      <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/StoryScript3.xlsx
+++ b/Assets/StreamingAssets/StoryScript3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8321732D-DE1F-7C4B-9955-E8D9DF8970E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9136A-CC82-124D-B3C9-CB1DAF12F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="144">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If you leave after the rain starts, don’t forget to bring the oil-paper umbrella in your room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In that case, I shall take my leave now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,6 +604,10 @@
   </si>
   <si>
     <t>History6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you leave after the rain starts, don’t forget to bring the &lt;color=#800000&gt;oil-paper umbrella&lt;/color&gt; in your room.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,9 +696,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1202,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1231,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1247,9 +1244,7 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
@@ -1284,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1314,7 +1309,7 @@
     </row>
     <row r="11" spans="1:16" ht="51">
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1350,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -1385,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -1549,9 +1544,7 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
@@ -1560,7 +1553,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
@@ -1586,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1615,7 +1608,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -1638,7 +1631,7 @@
         <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>57</v>
@@ -1649,20 +1642,16 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="34">
       <c r="B27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1758,7 +1747,7 @@
     </row>
     <row r="31" spans="1:12" ht="34">
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1766,17 +1755,13 @@
       <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:12" ht="17">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
@@ -1790,7 +1775,7 @@
     </row>
     <row r="33" spans="1:12" ht="51">
       <c r="B33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1804,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -1931,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>75</v>
@@ -1954,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -2035,7 +2020,7 @@
     </row>
     <row r="44" spans="1:12" ht="17">
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
         <v>82</v>
@@ -2046,7 +2031,7 @@
     </row>
     <row r="45" spans="1:12" ht="34">
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -2086,7 +2071,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -2095,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -2106,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -2115,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>22</v>
@@ -2135,7 +2120,7 @@
         <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -2158,7 +2143,7 @@
         <v>83</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
         <v>85</v>
@@ -2190,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2199,12 +2184,12 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:14" ht="34">
+    <row r="52" spans="1:14" ht="51">
       <c r="A52" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>85</v>
@@ -2213,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2222,7 +2207,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>22</v>
@@ -2233,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2242,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2258,7 +2243,7 @@
         <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
@@ -2267,7 +2252,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
@@ -2286,7 +2271,7 @@
     </row>
     <row r="55" spans="1:14" ht="34">
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2297,7 +2282,7 @@
     </row>
     <row r="56" spans="1:14" ht="34">
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2311,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>67</v>
@@ -2338,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="34">
@@ -2346,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2366,7 +2351,7 @@
     </row>
     <row r="59" spans="1:14" ht="34">
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2386,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -2409,10 +2394,10 @@
         <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
         <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -2432,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2455,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -2478,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -2502,7 +2487,7 @@
     </row>
     <row r="65" spans="1:5" ht="51">
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -2513,79 +2498,79 @@
     </row>
     <row r="66" spans="1:5" ht="34">
       <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
         <v>101</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="34">
       <c r="B67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="34">
       <c r="B68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="51">
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="34">
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="51">
       <c r="B71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="34">
       <c r="B72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="34">
@@ -2593,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2610,10 +2595,10 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="s">
         <v>109</v>
-      </c>
-      <c r="C74" t="s">
-        <v>110</v>
       </c>
       <c r="E74" t="s">
         <v>86</v>

--- a/Assets/StreamingAssets/StoryScript3.xlsx
+++ b/Assets/StreamingAssets/StoryScript3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9136A-CC82-124D-B3C9-CB1DAF12F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335D58D-407C-5944-B859-9F74817965C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -607,7 +607,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If you leave after the rain starts, don’t forget to bring the &lt;color=#800000&gt;oil-paper umbrella&lt;/color&gt; in your room.</t>
+    <t>If you leave after the rain starts, don’t forget to bring the &lt;color=#FFCC00&gt;oil-paper umbrella&lt;/color&gt; in your room.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
